--- a/data/income_statement/2digits/size/81_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/81_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>81-Services to buildings and landscape activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>81-Services to buildings and landscape activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,257 +841,292 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>688726.70388</v>
+        <v>700269.7667699999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>752743.53565</v>
+        <v>762270.33844</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>943202.4206599999</v>
+        <v>954274.9398399999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1086984.06736</v>
+        <v>1080167.78746</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1474716.05173</v>
+        <v>1460534.68975</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1824651.06544</v>
+        <v>1821801.82138</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2476884.28796</v>
+        <v>2544327.93165</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2871400.536480001</v>
+        <v>2933467.0187</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3664109.25455</v>
+        <v>3774042.08413</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3967999.62268</v>
+        <v>4098405.09581</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4149421.04325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4305127.30942</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4778043.826</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>644615.88664</v>
+        <v>655630.0880600001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>713480.13676</v>
+        <v>723697.8669</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>890609.6656299999</v>
+        <v>902836.97491</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1046529.96617</v>
+        <v>1040879.73265</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1427772.73412</v>
+        <v>1417840.9921</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1768550.72991</v>
+        <v>1764967.82211</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2386888.58751</v>
+        <v>2450418.95216</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2795539.40138</v>
+        <v>2850214.30247</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3546806.58363</v>
+        <v>3657593.36621</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3808116.81308</v>
+        <v>3937955.25509</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3941059.52243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4083272.224210001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4562913.194</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>15091.18937</v>
+        <v>16159.9594</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>6993.3109</v>
+        <v>7266.505679999999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>7765.08759</v>
+        <v>7732.25715</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>5732.56321</v>
+        <v>5414.00351</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>5585.43307</v>
+        <v>5143.73718</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>16436.52355</v>
+        <v>17943.31601</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>25448.7219</v>
+        <v>26644.65902</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>13771.46004</v>
+        <v>13937.82769</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>35726.47652</v>
+        <v>35522.61684</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>50037.31898</v>
+        <v>52832.11174000001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>59981.68246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>77305.95421</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>97257.84299999999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>29019.62787</v>
+        <v>28479.71931</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>32270.08799</v>
+        <v>31305.96586</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>44827.66744</v>
+        <v>43705.70778</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>34721.53797999999</v>
+        <v>33874.0513</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>41357.88454</v>
+        <v>37549.96047</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>39663.81198</v>
+        <v>38890.68326000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>64546.97855000001</v>
+        <v>67264.32047000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>62089.67506</v>
+        <v>69314.88854</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>81576.19439999999</v>
+        <v>80926.10107999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>109845.49062</v>
+        <v>107617.72898</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>148379.83836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>144549.131</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>117872.789</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2400.4379</v>
+        <v>2413.34746</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2475.90532</v>
+        <v>2510.4353</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2407.14535</v>
+        <v>2395.31639</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3240.38589</v>
+        <v>3206.26951</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3132.74758</v>
+        <v>3051.90164</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>5974.07502</v>
+        <v>6739.39297</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3374.49758</v>
+        <v>3985.361560000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5546.29697</v>
+        <v>7303.15106</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>9224.18641</v>
+        <v>9464.885420000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>23901.56421</v>
+        <v>22283.95478</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>28371.1207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>60291.9727</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>47556.403</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2190.80296</v>
+        <v>2224.73296</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2125.1639</v>
+        <v>2179.90251</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2046.01012</v>
+        <v>2036.01485</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3004.73765</v>
+        <v>2970.62127</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2697.79179</v>
+        <v>2638.38346</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5214.75242</v>
+        <v>5996.21034</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2509.77372</v>
+        <v>3071.03938</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3825.22353</v>
+        <v>5522.51982</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>8570.124609999999</v>
+        <v>8813.53587</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>17101.63609</v>
+        <v>15504.82431</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>23883.70253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>55957.99368</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>42578.261</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>159.37633</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>166.67521</v>
+        <v>166.98411</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>66.26036000000001</v>
+        <v>64.42667</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>150.74851</v>
@@ -1199,34 +1135,39 @@
         <v>340.7669</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>356.33568</v>
+        <v>353.53568</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>667.12603</v>
+        <v>718.4434399999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1174.37886</v>
+        <v>1237.28813</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>512.51417</v>
+        <v>511.73553</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>6442.872770000001</v>
+        <v>6422.07512</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3102.7661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3041.73093</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1668.671</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>50.25861</v>
+        <v>29.23817</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>184.06621</v>
+        <v>163.54868</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>294.87487</v>
@@ -1235,343 +1176,388 @@
         <v>84.89972999999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>94.18889</v>
+        <v>72.75127999999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>402.98692</v>
+        <v>389.64695</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>197.59783</v>
+        <v>195.87874</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>546.6945800000001</v>
+        <v>543.34311</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>141.54763</v>
+        <v>139.61402</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>357.05535</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1384.65207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1292.24809</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3309.471</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>686326.26598</v>
+        <v>697856.4193099999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>750267.63033</v>
+        <v>759759.9031400001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>940795.2753099999</v>
+        <v>951879.6234500001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1083743.68147</v>
+        <v>1076961.51795</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1471583.30415</v>
+        <v>1457482.78811</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1818676.99042</v>
+        <v>1815062.42841</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2473509.79038</v>
+        <v>2540342.57009</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2865854.23951</v>
+        <v>2926163.86764</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3654885.068140001</v>
+        <v>3764577.19871</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3944098.05847</v>
+        <v>4076121.14103</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4121049.92255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4244835.33672</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4730487.423</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>550265.64488</v>
+        <v>557411.0919300001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>592495.07833</v>
+        <v>596429.02016</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>775529.4868800001</v>
+        <v>781790.0319500001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>881832.5662999999</v>
+        <v>873134.76271</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1202231.26355</v>
+        <v>1193503.57737</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1507916.15393</v>
+        <v>1510369.75235</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2135631.69488</v>
+        <v>2196614.670609999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2486443.58467</v>
+        <v>2550337.67638</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3199454.75547</v>
+        <v>3297304.48725</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3427042.82744</v>
+        <v>3573446.09773</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3537792.04824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3644587.71626</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3981192.366</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>21093.81662</v>
+        <v>24012.85366</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>25402.02192</v>
+        <v>24785.90762</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>34646.55521</v>
+        <v>35117.07313</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>47278.82305</v>
+        <v>45904.49062</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>43952.0222</v>
+        <v>40582.41244</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>81536.70090000001</v>
+        <v>79535.40631999999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>126717.14544</v>
+        <v>132833.82611</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>134376.25861</v>
+        <v>139895.01159</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>188356.99029</v>
+        <v>193428.26993</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>279547.57912</v>
+        <v>274063.76542</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>373630.78479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>380468.38215</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>357484.772</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>133221.05563</v>
+        <v>136076.41419</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>138162.03963</v>
+        <v>133997.99208</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>152437.30515</v>
+        <v>150585.62333</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>248299.75202</v>
+        <v>241632.85234</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>301440.85536</v>
+        <v>299683.17398</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>496915.15357</v>
+        <v>492291.65479</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>716571.40899</v>
+        <v>724770.1750500001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>844113.73133</v>
+        <v>861090.04314</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1197133.82729</v>
+        <v>1225247.77108</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1030245.69053</v>
+        <v>1035952.02486</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1063994.03577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1081272.45338</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1535124.894</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>395452.23605</v>
+        <v>396921.2875</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>428057.67777</v>
+        <v>436761.9114099999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>586256.17877</v>
+        <v>593883.8099399999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>585223.23152</v>
+        <v>584669.35203</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>853192.66738</v>
+        <v>850254.27931</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>925936.7883</v>
+        <v>935947.9041399999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1281399.56319</v>
+        <v>1329292.05998</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1500260.29442</v>
+        <v>1535882.88251</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1801094.01843</v>
+        <v>1866570.77994</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2091632.52226</v>
+        <v>2235362.92835</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2055728.57466</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2142340.95014</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2059003.381</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>498.53658</v>
+        <v>400.53658</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>873.33901</v>
+        <v>883.20905</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2189.44775</v>
+        <v>2203.52555</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1030.75971</v>
+        <v>928.06772</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3645.71861</v>
+        <v>2983.71164</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>3527.51116</v>
+        <v>2594.7871</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>10943.57726</v>
+        <v>9718.609469999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>7693.300310000001</v>
+        <v>13469.73914</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>12869.91946</v>
+        <v>12057.6663</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>25617.03553</v>
+        <v>28067.3791</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>44438.65302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>40505.93059</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>29579.319</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>136060.6211</v>
+        <v>140445.32738</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>157772.552</v>
+        <v>163330.88298</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>165265.78843</v>
+        <v>170089.5915</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>201911.11517</v>
+        <v>203826.75524</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>269352.0405999999</v>
+        <v>263979.21074</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>310760.83649</v>
+        <v>304692.67606</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>337878.0955</v>
+        <v>343727.89948</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>379410.65484</v>
+        <v>375826.19126</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>455430.31267</v>
+        <v>467272.71146</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>517055.23103</v>
+        <v>502675.0433</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>583257.87431</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>600247.6204599999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>749295.057</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>121851.97171</v>
+        <v>123161.00369</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>142875.34006</v>
+        <v>145079.02803</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>149884.72845</v>
+        <v>151243.77706</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>183623.05911</v>
+        <v>182678.48638</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>204557.7838</v>
+        <v>199120.85638</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>257993.46086</v>
+        <v>248982.36663</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>291750.81513</v>
+        <v>293153.73067</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>351883.73469</v>
+        <v>341275.4831</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>403672.21768</v>
+        <v>406747.55977</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>470010.80797</v>
+        <v>453338.23534</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>539040.80237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>526652.3901</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>606127.904</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>294.4532</v>
@@ -1589,13 +1575,13 @@
         <v>238.58477</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>293.99223</v>
+        <v>236.29175</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>984.37591</v>
+        <v>968.84987</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>637.29265</v>
+        <v>441.15422</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>4.167190000000001</v>
@@ -1606,206 +1592,236 @@
       <c r="M21" s="48" t="n">
         <v>43.77892000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>774.793</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>17577.36256</v>
+        <v>16722.73611</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>24988.54883</v>
+        <v>24517.02734</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>18518.58916</v>
+        <v>17916.05568</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>24182.75872</v>
+        <v>23361.03986</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>22495.33985</v>
+        <v>22286.73926</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>26069.14422</v>
+        <v>26443.22141</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>30170.80377</v>
+        <v>31034.27058</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>41080.91925</v>
+        <v>38444.83729</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>47701.63794</v>
+        <v>46646.14956000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>57187.82457</v>
+        <v>53695.20811</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>59269.17576000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>67680.72361</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>63044.06</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>103980.15595</v>
+        <v>106143.81438</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>116994.5051</v>
+        <v>119669.71456</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>130921.61883</v>
+        <v>132883.20092</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>158482.9291</v>
+        <v>158360.07523</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>181823.85918</v>
+        <v>176595.53235</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>231630.32441</v>
+        <v>222302.85347</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>260595.63545</v>
+        <v>261150.61022</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>310165.52279</v>
+        <v>302389.49159</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>355966.4125499999</v>
+        <v>360097.24302</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>412780.85998</v>
+        <v>399600.90381</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>479727.84769</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>458927.88757</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>542309.051</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>14208.64939</v>
+        <v>17284.32369</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>14897.21194</v>
+        <v>18251.85495</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>15381.05998</v>
+        <v>18845.81444</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>18288.05606</v>
+        <v>21148.26886</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>64794.2568</v>
+        <v>64858.35436</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>52767.37562999999</v>
+        <v>55710.30943</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>46127.28037000001</v>
+        <v>50574.16881</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>27526.92015</v>
+        <v>34550.70815999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>51758.09499</v>
+        <v>60525.15169</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>47044.42306</v>
+        <v>49336.80796</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>44217.07193999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>73595.23036</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>143167.153</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>7555.91818</v>
+        <v>6513.66823</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8436.114099999999</v>
+        <v>7743.248399999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>9142.21098</v>
+        <v>10898.14965</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>11219.9193</v>
+        <v>10234.177</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>22921.10946</v>
+        <v>37682.45095000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>24320.10323</v>
+        <v>23403.20864</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>20108.21058</v>
+        <v>22344.49474</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>21825.86405</v>
+        <v>32571.4715</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>28298.21289</v>
+        <v>44684.33077</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>61720.55241999999</v>
+        <v>105434.91286</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>88314.78889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>121802.17699</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>132041.662</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>246.0292</v>
+        <v>414.1037</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>295.88754</v>
+        <v>1111.06005</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>837.3179200000001</v>
+        <v>2932.7792</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>770.9103</v>
+        <v>1432.77742</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1055.13875</v>
+        <v>998.7718299999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>2175.35286</v>
+        <v>2090.74253</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2253.686</v>
+        <v>2750.60434</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2139.44733</v>
+        <v>11191.7896</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1640.4081</v>
+        <v>13780.5887</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>4248.543769999999</v>
+        <v>3564.21822</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1217.29503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1133.77888</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1238.393</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>99.13293</v>
@@ -1814,76 +1830,86 @@
         <v>491.33673</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>462.0094</v>
+        <v>381.29129</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>573.59645</v>
+        <v>391.40873</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>866.39567</v>
+        <v>813.2327299999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>666.29538</v>
+        <v>489.15026</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1972.90445</v>
+        <v>1663.19049</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>2884.16551</v>
+        <v>2799.80124</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>2448.45424</v>
+        <v>2059.40289</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>3055.90587</v>
+        <v>4846.02039</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>3143.95047</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>4677.90283</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>14436.219</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1371.93105</v>
+        <v>1092.38446</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1000.68934</v>
+        <v>740.5562600000002</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1341.67013</v>
+        <v>1100.41643</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1920.66351</v>
+        <v>1337.9685</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2304.20148</v>
+        <v>1033.96788</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2434.06033</v>
+        <v>1322.8743</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2683.97585</v>
+        <v>2631.08783</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2799.59753</v>
+        <v>3350.98056</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4573.84247</v>
+        <v>5651.22975</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>10236.23201</v>
+        <v>9695.785100000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>13011.38351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>14460.2847</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>13414.655</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>6.078390000000001</v>
@@ -1898,31 +1924,36 @@
         <v>6.79128</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>32.97206</v>
+        <v>32.90705999999999</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>24.20245</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>0.45755</v>
+        <v>38.57291</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>49.75489</v>
+        <v>112.31226</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>15.3502</v>
+        <v>93.09416</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>39.57985000000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>672.37101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>226.69621</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>280.738</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>383.8532</v>
@@ -1934,112 +1965,127 @@
         <v>358.17883</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>567.36537</v>
+        <v>438.09585</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>368.51861</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>735.97286</v>
+        <v>664.9728600000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1156.58939</v>
+        <v>2011.87245</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>720.20974</v>
+        <v>637.95974</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>699.27903</v>
+        <v>695.32498</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>364.5</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>19281.67769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>19320.67769</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>459.592</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>87.5959</v>
+        <v>93.22618</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>43.29427</v>
+        <v>43.20060000000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>40.05831</v>
+        <v>35.71297</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>36.52479</v>
+        <v>32.86914</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>413.53864</v>
+        <v>402.82152</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>413.9942399999999</v>
+        <v>411.41058</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>356.49374</v>
+        <v>370.53894</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>125.32248</v>
+        <v>106.73819</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>143.77311</v>
+        <v>119.28382</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>220.48226</v>
+        <v>299.86087</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>940.1817799999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1149.25992</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>414.819</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>935.23654</v>
+        <v>785.97301</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1252.35956</v>
+        <v>583.69875</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>976.64001</v>
+        <v>1383.62159</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>670.2021699999999</v>
+        <v>555.87963</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1124.51888</v>
+        <v>940.8305</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1539.29426</v>
+        <v>5597.867770000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3134.29716</v>
+        <v>5884.810199999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2220.00519</v>
+        <v>4599.03868</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>7326.95594</v>
+        <v>9883.67116</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>18842.96562</v>
+        <v>16653.40336</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>7937.93167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>11938.01879</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>28440.52</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>43.28287</v>
@@ -2060,25 +2106,30 @@
         <v>5.661350000000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>4.02818</v>
+        <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>4.40883</v>
+        <v>3.91389</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>0</v>
+        <v>3.56966</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>181.09175</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>56.65023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>57.51264</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>24.222</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>16.73452</v>
@@ -2087,13 +2138,13 @@
         <v>27.17932</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>7.01177</v>
+        <v>4.54509</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>6.353890000000001</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>3667.38643</v>
+        <v>3666.15123</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>89.33273000000001</v>
@@ -2113,128 +2164,148 @@
       <c r="M34" s="48" t="n">
         <v>54.24481</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>47.111</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4366.04358</v>
+        <v>3578.89897</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4934.44943</v>
+        <v>4355.29878</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>5093.38427</v>
+        <v>4675.66391</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>6667.51154</v>
+        <v>6032.03256</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>13088.07749</v>
+        <v>29424.88814</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>16235.93677</v>
+        <v>12706.99381</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8521.028880000002</v>
+        <v>6969.068200000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>10863.97157</v>
+        <v>9749.95636</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>11407.80935</v>
+        <v>12355.8252</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>24456.45529</v>
+        <v>69715.65732</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>41999.10269000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>68783.80052</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>73285.393</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4732.1462</v>
+        <v>4080.48758</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2711.12743</v>
+        <v>2746.87034</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1563.72754</v>
+        <v>1751.86736</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3435.68455</v>
+        <v>3145.81905</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5383.130460000001</v>
+        <v>26802.84453</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3959.83398</v>
+        <v>6848.68938</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6377.43495</v>
+        <v>9155.336909999998</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5111.17239</v>
+        <v>8431.957950000002</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>15318.52891</v>
+        <v>20439.75765</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>32049.54894</v>
+        <v>25431.82723</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>37192.4123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>59949.64864000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>57299.47</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>64.35592</v>
+        <v>64.31155</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>58.12652000000001</v>
+        <v>58.10022</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>86.44569</v>
+        <v>86.27778000000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>305.80084</v>
+        <v>305.58683</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>162.01921</v>
+        <v>159.49511</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>169.65074</v>
+        <v>161.50873</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>300.41521</v>
+        <v>259.45718</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>224.22393</v>
+        <v>201.61223</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>442.73847</v>
+        <v>857.01617</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>980.5140799999999</v>
+        <v>943.7152</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>923.43163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1022.72407</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>326.501</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2638.02217</v>
@@ -2246,34 +2317,39 @@
         <v>117.13754</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>976.6402399999999</v>
+        <v>989.23095</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>904.2760500000001</v>
+        <v>283.30557</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>568.24537</v>
+        <v>561.70345</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1197.82748</v>
+        <v>1178.24343</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>196.36248</v>
+        <v>184.11248</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1544.12457</v>
+        <v>3144.12457</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2419.8407</v>
+        <v>1538.77382</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>22893.30556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>22259.74499</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3728.81</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>12.14852</v>
@@ -2291,7 +2367,7 @@
         <v>216.87202</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>52.17308</v>
+        <v>52.43458</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>21.97274</v>
@@ -2303,61 +2379,71 @@
         <v>0.28632</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>32.34415</v>
+        <v>32.34392</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>29.92042</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>14612.67115</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>27.067</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1487.72513</v>
+        <v>854.2486600000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1007.12765</v>
+        <v>952.72033</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>639.84507</v>
+        <v>669.3278200000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>507.4874300000001</v>
+        <v>751.64609</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>368.65887</v>
+        <v>621.3090599999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1459.29429</v>
+        <v>4771.71264</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2950.54329</v>
+        <v>5470.43679</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2782.11249</v>
+        <v>5802.995180000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6885.925020000001</v>
+        <v>10358.62652</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>22337.50868</v>
+        <v>17349.65725</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6624.704940000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13268.16126</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>30769.273</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.77044</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0.17922</v>
+        <v>118.49782</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0</v>
@@ -2372,31 +2458,36 @@
         <v>76.46374</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>15.04286</v>
+        <v>5.35333</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>3.96401</v>
+        <v>0</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>368.72991</v>
+        <v>375.79117</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>120.8807</v>
+        <v>119.00311</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>45.30312</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>102.082</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>19.53679</v>
+        <v>15.20164</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>5.50561</v>
+        <v>0.13293</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>1</v>
@@ -2425,248 +2516,283 @@
       <c r="M42" s="48" t="n">
         <v>1e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>509.58723</v>
+        <v>495.7846</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1444.16773</v>
+        <v>1421.39834</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>717.45038</v>
+        <v>876.2753600000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1577.69005</v>
+        <v>1031.28919</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3724.267</v>
+        <v>25514.82546</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1556.15522</v>
+        <v>1147.0147</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1891.63337</v>
+        <v>2219.87344</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1893.91262</v>
+        <v>2232.6412</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>6076.724619999999</v>
+        <v>5703.9129</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6150.80136</v>
+        <v>5440.674659999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6675.74662</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8741.044039999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>22345.737</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>5536.95288</v>
+        <v>6290.57575</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>5520.51055</v>
+        <v>5189.82747</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>5993.68047</v>
+        <v>5432.27203</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>7523.046710000001</v>
+        <v>6566.98155</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>9453.095140000001</v>
+        <v>8121.541730000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>12080.96249</v>
+        <v>10504.44348</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>16903.57132</v>
+        <v>16433.1654</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>19643.6121</v>
+        <v>17634.13923</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>27668.70081</v>
+        <v>29952.31041</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>51583.47990000001</v>
+        <v>51544.40667000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>64383.53717999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>86571.55482</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>77501.62699999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4915.006439999999</v>
+        <v>5775.30875</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5290.99514</v>
+        <v>4749.01821</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>5822.30942</v>
+        <v>5274.52598</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>7351.31407</v>
+        <v>6395.248909999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>9313.534439999999</v>
+        <v>7983.447560000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>11924.12916</v>
+        <v>10347.61015</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>16546.7368</v>
+        <v>16129.27623</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>19427.85276</v>
+        <v>17423.48534</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>26942.53943</v>
+        <v>29233.94521</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>50242.33339</v>
+        <v>49522.35443</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>62619.54052</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>82150.75474999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>72168.45600000001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>621.9464400000001</v>
+        <v>515.2670000000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>229.51541</v>
+        <v>440.80926</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>171.37105</v>
+        <v>157.74605</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>171.73264</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>139.5607</v>
+        <v>138.09417</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>156.83333</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>356.8345199999999</v>
+        <v>303.88917</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>215.75934</v>
+        <v>210.65389</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>726.1613799999999</v>
+        <v>718.3652</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1341.14651</v>
+        <v>2022.05224</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1763.99666</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4420.80007</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5333.171</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>11495.46849</v>
+        <v>13426.92859</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>15101.68806</v>
+        <v>18058.40554</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>16965.86295</v>
+        <v>22559.82469999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>18549.2441</v>
+        <v>21669.64526</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>72879.14065999999</v>
+        <v>67616.41905</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>61046.68239000001</v>
+        <v>61760.38521</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>42954.48468</v>
+        <v>47330.16124</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>24597.99971</v>
+        <v>41056.08248</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>37069.07816</v>
+        <v>54817.41439999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>25131.94664</v>
+        <v>77795.48692</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>30955.91135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>48876.20389</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>140407.718</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>4193.92633</v>
+        <v>4295.867619999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>7836.08103</v>
+        <v>4437.96976</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5650.263150000001</v>
+        <v>5371.413699999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8855.115119999999</v>
+        <v>7602.923860000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>10328.9129</v>
+        <v>7344.57577</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>18961.93043</v>
+        <v>10167.07895</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>18371.29271</v>
+        <v>15755.40399</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>20154.79552</v>
+        <v>20095.91372</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>17727.29404</v>
+        <v>23915.2182</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>30705.14968</v>
+        <v>34843.01092</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>48571.90079</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>66809.70372</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>79355.81</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>52.88793</v>
+        <v>48.38219</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>28.7576</v>
@@ -2675,115 +2801,130 @@
         <v>878.33842</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>132.13454</v>
+        <v>128.31884</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>910.99454</v>
+        <v>76.16643000000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>73.51658999999999</v>
+        <v>74.16659</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3127.32446</v>
+        <v>3194.70807</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>139.45582</v>
+        <v>24.01214</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>215.11596</v>
+        <v>234.21592</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>699.6622899999999</v>
+        <v>1011.95746</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>659.8947099999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>606.7242199999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2081.166</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>4141.038399999999</v>
+        <v>4247.48543</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>7807.323429999999</v>
+        <v>4409.212159999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4771.924730000001</v>
+        <v>4493.075279999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>8722.980579999999</v>
+        <v>7474.605020000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>9417.918360000001</v>
+        <v>7268.40934</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>18888.41384</v>
+        <v>10092.91236</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>15243.96825</v>
+        <v>12560.69592</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>20015.3397</v>
+        <v>20071.90158</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>17512.17808</v>
+        <v>23681.00228</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>30005.48739</v>
+        <v>33831.05346</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>47912.00608</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>66202.9795</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>77274.644</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4917.243979999999</v>
+        <v>4295.6378</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>7421.69257</v>
+        <v>7211.543960000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>33477.58367</v>
+        <v>29419.90748</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>7645.95503</v>
+        <v>7096.761499999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7071.436610000001</v>
+        <v>5339.09708</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>20563.21675</v>
+        <v>17104.22208</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>13568.47291</v>
+        <v>13307.35938</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>34716.44327</v>
+        <v>33099.42747</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>16737.67831</v>
+        <v>20101.37534</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>44904.85649000001</v>
+        <v>49821.02140000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>76004.47027999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>72260.98659</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>43421.93</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>284.30114</v>
+        <v>344.20093</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>159.46377</v>
@@ -2795,223 +2936,251 @@
         <v>1.20613</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>27.82888</v>
+        <v>2.1947</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>204.2064</v>
+        <v>176.84822</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>274.11188</v>
+        <v>156.14192</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>89.41530999999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>121.95252</v>
+        <v>42.76649</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>3.60753</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>0.74701</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.62501</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>29.622</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>431.67104</v>
+        <v>462.32853</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>361.59746</v>
+        <v>251.1897</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>218.35312</v>
+        <v>217.26898</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>109.68183</v>
+        <v>106.32161</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>523.49868</v>
+        <v>442.36989</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>257.43376</v>
+        <v>178.46537</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>382.70749</v>
+        <v>600.7517</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>950.4990999999999</v>
+        <v>504.75378</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>873.9111599999999</v>
+        <v>1022.52505</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>409.57677</v>
+        <v>406.87238</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2937.85199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1143.58292</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1489.539</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4201.2718</v>
+        <v>3489.10834</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6900.63134</v>
+        <v>6800.890490000002</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>33247.34474</v>
+        <v>29190.75269</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>7535.06707</v>
+        <v>6989.233760000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6520.109050000001</v>
+        <v>4894.53249</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>20101.57659</v>
+        <v>16748.90849</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>12911.65354</v>
+        <v>12550.46576</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>33676.52886</v>
+        <v>32505.25838</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>15741.81463</v>
+        <v>19036.0838</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>44491.67219</v>
+        <v>49410.54149</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>73065.87128000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>71116.77866000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>41902.769</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>10772.15084</v>
+        <v>13427.15841</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>15516.07652</v>
+        <v>15284.83134</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-10861.45757</v>
+        <v>-1488.66908</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>19758.40419</v>
+        <v>22175.80762</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>76136.61695</v>
+        <v>69621.89774000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>59445.39607000001</v>
+        <v>54823.24208</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>47757.30448000001</v>
+        <v>49778.20585</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>10036.35196</v>
+        <v>28052.56873</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>38058.69389</v>
+        <v>58631.25726000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>10932.23983</v>
+        <v>62817.47644000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3523.34186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>43424.92101999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>176341.598</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4957.33172</v>
+        <v>4848.57573</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>5755.18371</v>
+        <v>5828.26953</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>5707.95165</v>
+        <v>6173.093900000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>8299.95148</v>
+        <v>7977.78283</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>16827.37406</v>
+        <v>15184.01843</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>15905.31666</v>
+        <v>13802.72764</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>14296.81943</v>
+        <v>13761.97358</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>14404.93958</v>
+        <v>14036.68644</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>16310.79229</v>
+        <v>16766.54625</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>22484.91425</v>
+        <v>23342.07633</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>31263.39739</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>28911.82449</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>42411.544</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>5814.81912</v>
+        <v>8578.58268</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>9760.892809999999</v>
+        <v>9456.561810000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-16569.40922</v>
+        <v>-7661.76298</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>11458.45271</v>
+        <v>14198.02479</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>59309.24289</v>
+        <v>54437.87931</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>43540.07941000001</v>
+        <v>41020.51444</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>33460.48505</v>
+        <v>36016.23226999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-4368.58762</v>
+        <v>14015.88229</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>21747.9016</v>
+        <v>41864.71101</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-11552.67442</v>
+        <v>39475.40011</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-27740.05553</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>14513.09653</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>133930.054</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1119</v>
+        <v>1072</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1235</v>
+        <v>1170</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1318</v>
+        <v>1248</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1398</v>
+        <v>1289</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1598</v>
+        <v>1437</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1799</v>
+        <v>1592</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2071</v>
+        <v>1832</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2144</v>
+        <v>1873</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2316</v>
+        <v>2009</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2044</v>
+        <v>1876</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1446</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>